--- a/downloaded_files/MDPS133_Lecture-35702.xlsx
+++ b/downloaded_files/MDPS133_Lecture-35702.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Ahmed essam ahmed mahmoud</x:t>
   </x:si>
   <x:si>
+    <x:t>4250164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250165</x:t>
   </x:si>
   <x:si>
@@ -94,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Tasneem Yahia Mohamed Farag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله اشرف رأفت حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Ashraf Raafat Hassanein</x:t>
   </x:si>
   <x:si>
     <x:t>4250182</x:t>
@@ -272,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -582,7 +600,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.750625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="42.180625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -759,7 +777,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45919.4327795949</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -791,7 +809,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4194866898</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -823,7 +841,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4436959838</x:v>
+        <x:v>45908.4194866898</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -855,7 +873,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45908.4436959838</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -887,7 +905,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,7 +937,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +969,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +1001,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1033,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4147929398</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1079,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45908.4147929398</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1096,6 +1114,70 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45908.4421759606</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45907.6651739583</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS133_Lecture-35702.xlsx
+++ b/downloaded_files/MDPS133_Lecture-35702.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -132,6 +132,15 @@
     <x:t>Mohamed Ahmed Hamed Ahmed Hamed Selim</x:t>
   </x:si>
   <x:si>
+    <x:t>1240256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد سعيد صالح المهندس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed ahmed saied saleh elmohandes</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250212</x:t>
   </x:si>
   <x:si>
@@ -175,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Yahya Osama Mohamed Lotfy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف سلامة متولى محمود عبدالرازق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Salama Metwally</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -290,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1033,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45927.4734264236</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4147929398</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4147929398</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1161,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1178,6 +1196,70 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45907.6651739583</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45927.4426833681</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS133_Lecture-35702.xlsx
+++ b/downloaded_files/MDPS133_Lecture-35702.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Yahya Osama Mohamed Lotfy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف سلامة متولى محمود عبدالرازق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Salama Metwally</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -308,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1228,38 +1219,6 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45927.4426833681</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
